--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1982022.584528269</v>
+        <v>2076693.048311107</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069183</v>
+        <v>840694.9721069179</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>314.3859612465837</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>274.6289465603447</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -738,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.12364998444443</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>102.5637353995021</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>285.5453800016775</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1029,7 +1031,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>26.54536586583518</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.6353323464449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>143.745968803038</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>262.5025840536701</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>167.5990957313719</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>99.66075074687581</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H11" t="n">
-        <v>295.617861616927</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I11" t="n">
         <v>45.37937317040308</v>
@@ -1421,7 +1423,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T11" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367008</v>
       </c>
       <c r="U11" t="n">
         <v>251.0030623803221</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28.81869974802235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>158.442456756648</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>111.435299014555</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T14" t="n">
         <v>204.3497241367009</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0030623803228</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
-        <v>28.68313558002671</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>1.104977782344255</v>
       </c>
     </row>
     <row r="17">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>48.40548534841015</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>37.54175999481367</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>100.4955009483912</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>158.442456756648</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>62.36850297087413</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>50.26733498804083</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.0203559212046</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>190.5400452173542</v>
@@ -2767,19 +2769,19 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>209.3088488683026</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>191.8908307374306</v>
       </c>
     </row>
     <row r="29">
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>162.4018459780626</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>25.21571338037813</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>145.148367782564</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>104.9594895075435</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2142514133935</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>167.3997853930296</v>
       </c>
     </row>
     <row r="35">
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>50.17707798472518</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>182.9393678543459</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
         <v>286.2142514133935</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3554,10 +3556,10 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T38" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367008</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>158.442456756648</v>
       </c>
       <c r="X40" t="n">
-        <v>221.4468053071383</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T41" t="n">
         <v>204.3497241367009</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>32.76530276776105</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>119.740140031906</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.7379838856521</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>22.46249926715952</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V46" t="n">
-        <v>164.4141282600331</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1639.851790143458</v>
+        <v>1739.708500331691</v>
       </c>
       <c r="C2" t="n">
-        <v>1639.851790143458</v>
+        <v>1739.708500331691</v>
       </c>
       <c r="D2" t="n">
-        <v>1281.586091536707</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>895.797838938463</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>484.8119341488554</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4325,22 +4327,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>1739.708500331691</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.851790143458</v>
+        <v>1739.708500331691</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>196.6941021971134</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>196.6941021971134</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1139.146815977587</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C5" t="n">
-        <v>1139.146815977587</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>1139.146815977587</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>753.3585633793432</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>342.3726585897356</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,19 +4591,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
         <v>2289.351746278601</v>
@@ -4610,7 +4612,7 @@
         <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.746656041709</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4656,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4671,25 +4673,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027575</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027575</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027575</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>671.8985641854752</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9927747426009</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027575</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1077.074462393506</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="C8" t="n">
-        <v>1077.074462393506</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>718.8087637867552</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>333.020511188511</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036444</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332392</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332392</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988821</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718707</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.674302457627</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y8" t="n">
-        <v>1463.674302457627</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4902,31 +4904,31 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="10">
@@ -4990,19 +4992,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>529.4200491697815</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>529.4200491697815</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036444</v>
@@ -5021,16 +5023,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E11" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F11" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H11" t="n">
         <v>141.5554198924156</v>
@@ -5039,28 +5041,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K11" t="n">
-        <v>1086.017693327009</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.642956557056</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M11" t="n">
-        <v>2038.02943534674</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N11" t="n">
-        <v>3000.35885077538</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O11" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P11" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R11" t="n">
         <v>4785.883460762037</v>
@@ -5075,13 +5077,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V11" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W11" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X11" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y11" t="n">
         <v>2765.933610202796</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.71766921524075</v>
+        <v>1122.605169488108</v>
       </c>
       <c r="C13" t="n">
-        <v>95.71766921524075</v>
+        <v>953.668986560201</v>
       </c>
       <c r="D13" t="n">
-        <v>95.71766921524075</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="E13" t="n">
-        <v>95.71766921524075</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="F13" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G13" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H13" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I13" t="n">
         <v>95.71766921524075</v>
@@ -5221,28 +5223,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R13" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S13" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T13" t="n">
-        <v>1406.816559682884</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U13" t="n">
-        <v>1117.711255224911</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="V13" t="n">
-        <v>863.0267670190239</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="W13" t="n">
-        <v>573.6095969820633</v>
+        <v>1753.035764359895</v>
       </c>
       <c r="X13" t="n">
-        <v>345.620046084046</v>
+        <v>1525.046213461878</v>
       </c>
       <c r="Y13" t="n">
-        <v>124.8274669405158</v>
+        <v>1304.253634318348</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5269,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H14" t="n">
         <v>141.5554198924156</v>
@@ -5279,34 +5281,34 @@
         <v>276.3093906935954</v>
       </c>
       <c r="K14" t="n">
-        <v>674.8131333966969</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L14" t="n">
-        <v>1110.438396626744</v>
+        <v>1327.278034693952</v>
       </c>
       <c r="M14" t="n">
-        <v>2071.843273574332</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N14" t="n">
-        <v>3034.172689002972</v>
+        <v>3251.012327070181</v>
       </c>
       <c r="O14" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P14" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R14" t="n">
         <v>4785.883460762037</v>
       </c>
       <c r="S14" t="n">
-        <v>4673.322552666527</v>
+        <v>4673.322552666526</v>
       </c>
       <c r="T14" t="n">
-        <v>4466.908689902183</v>
+        <v>4466.908689902182</v>
       </c>
       <c r="U14" t="n">
         <v>4213.370243053372</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.5735326357868</v>
+        <v>344.5039069099608</v>
       </c>
       <c r="C16" t="n">
-        <v>540.6373497078799</v>
+        <v>344.5039069099608</v>
       </c>
       <c r="D16" t="n">
-        <v>390.5207102955442</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="E16" t="n">
-        <v>242.6076167131511</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="F16" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="G16" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H16" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I16" t="n">
         <v>95.71766921524075</v>
@@ -5458,28 +5460,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T16" t="n">
-        <v>1913.078649972671</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U16" t="n">
-        <v>1884.105785750422</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V16" t="n">
-        <v>1629.421297544535</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="W16" t="n">
-        <v>1340.004127507574</v>
+        <v>573.6095969820633</v>
       </c>
       <c r="X16" t="n">
-        <v>1112.014576609557</v>
+        <v>345.620046084046</v>
       </c>
       <c r="Y16" t="n">
-        <v>891.2219974660266</v>
+        <v>344.5039069099608</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C17" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E17" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F17" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G17" t="n">
         <v>440.1593205155743</v>
@@ -5516,16 +5518,16 @@
         <v>276.3093906935954</v>
       </c>
       <c r="K17" t="n">
-        <v>855.1603485090773</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L17" t="n">
-        <v>1704.27021414407</v>
+        <v>1327.278034693952</v>
       </c>
       <c r="M17" t="n">
-        <v>2665.675091091658</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N17" t="n">
-        <v>3628.004506520298</v>
+        <v>3251.012327070181</v>
       </c>
       <c r="O17" t="n">
         <v>4114.52506777933</v>
@@ -5546,19 +5548,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U17" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V17" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y17" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="18">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>538.0847382227873</v>
+        <v>3321.080922852504</v>
       </c>
       <c r="C19" t="n">
-        <v>538.0847382227873</v>
+        <v>3321.080922852504</v>
       </c>
       <c r="D19" t="n">
-        <v>489.1903085779286</v>
+        <v>3321.080922852504</v>
       </c>
       <c r="E19" t="n">
-        <v>341.2772149955355</v>
+        <v>3283.159953160773</v>
       </c>
       <c r="F19" t="n">
-        <v>194.3872674976251</v>
+        <v>3136.270005662862</v>
       </c>
       <c r="G19" t="n">
-        <v>194.3872674976251</v>
+        <v>2968.522480004607</v>
       </c>
       <c r="H19" t="n">
-        <v>194.3872674976251</v>
+        <v>2968.522480004607</v>
       </c>
       <c r="I19" t="n">
-        <v>95.71766921524075</v>
+        <v>2968.522480004607</v>
       </c>
       <c r="J19" t="n">
-        <v>137.7436613720288</v>
+        <v>3010.548472161395</v>
       </c>
       <c r="K19" t="n">
-        <v>336.6421130738839</v>
+        <v>3209.44692386325</v>
       </c>
       <c r="L19" t="n">
-        <v>646.6900875150416</v>
+        <v>3519.494898304408</v>
       </c>
       <c r="M19" t="n">
-        <v>983.9813277239498</v>
+        <v>3856.786138513316</v>
       </c>
       <c r="N19" t="n">
-        <v>1318.687152545534</v>
+        <v>4191.4919633349</v>
       </c>
       <c r="O19" t="n">
-        <v>1611.825859961355</v>
+        <v>4484.630670750721</v>
       </c>
       <c r="P19" t="n">
-        <v>1839.135983203279</v>
+        <v>4711.940793992646</v>
       </c>
       <c r="Q19" t="n">
-        <v>1913.078649972671</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="R19" t="n">
-        <v>1821.238811302082</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S19" t="n">
-        <v>1821.238811302082</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="T19" t="n">
-        <v>1599.281251821626</v>
+        <v>4563.925901281581</v>
       </c>
       <c r="U19" t="n">
-        <v>1310.175947363652</v>
+        <v>4274.820596823608</v>
       </c>
       <c r="V19" t="n">
-        <v>1055.491459157765</v>
+        <v>4020.136108617721</v>
       </c>
       <c r="W19" t="n">
-        <v>766.0742891208047</v>
+        <v>3730.718938580761</v>
       </c>
       <c r="X19" t="n">
-        <v>538.0847382227873</v>
+        <v>3502.729387682743</v>
       </c>
       <c r="Y19" t="n">
-        <v>538.0847382227873</v>
+        <v>3502.729387682743</v>
       </c>
     </row>
     <row r="20">
@@ -5735,13 +5737,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E20" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F20" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G20" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H20" t="n">
         <v>141.5554198924156</v>
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1055.179593578778</v>
+        <v>1122.605169488108</v>
       </c>
       <c r="C22" t="n">
         <v>953.668986560201</v>
@@ -5932,28 +5934,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S22" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T22" t="n">
-        <v>1599.281251821626</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U22" t="n">
-        <v>1599.281251821626</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="V22" t="n">
-        <v>1344.596763615739</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="W22" t="n">
-        <v>1055.179593578778</v>
+        <v>1753.035764359895</v>
       </c>
       <c r="X22" t="n">
-        <v>1055.179593578778</v>
+        <v>1525.046213461878</v>
       </c>
       <c r="Y22" t="n">
-        <v>1055.179593578778</v>
+        <v>1304.253634318348</v>
       </c>
     </row>
     <row r="23">
@@ -5972,13 +5974,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E23" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F23" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H23" t="n">
         <v>141.5554198924156</v>
@@ -5993,13 +5995,13 @@
         <v>597.708085861203</v>
       </c>
       <c r="L23" t="n">
-        <v>1446.817951496196</v>
+        <v>1327.278034693952</v>
       </c>
       <c r="M23" t="n">
-        <v>2408.222828443784</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N23" t="n">
-        <v>3370.552243872424</v>
+        <v>3251.012327070181</v>
       </c>
       <c r="O23" t="n">
         <v>4114.52506777933</v>
@@ -6023,13 +6025,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V23" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y23" t="n">
         <v>2765.933610202796</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>631.0895572303024</v>
+        <v>477.7689794048512</v>
       </c>
       <c r="C25" t="n">
-        <v>462.1533743023955</v>
+        <v>308.8327964769443</v>
       </c>
       <c r="D25" t="n">
-        <v>462.1533743023955</v>
+        <v>158.7161570646086</v>
       </c>
       <c r="E25" t="n">
-        <v>314.2402807200024</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F25" t="n">
-        <v>314.2402807200024</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G25" t="n">
-        <v>146.4927550617466</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H25" t="n">
         <v>95.71766921524075</v>
@@ -6172,25 +6174,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S25" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T25" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="U25" t="n">
-        <v>1623.973345514697</v>
+        <v>1431.508653375956</v>
       </c>
       <c r="V25" t="n">
-        <v>1369.288857308811</v>
+        <v>1176.824165170069</v>
       </c>
       <c r="W25" t="n">
-        <v>1079.87168727185</v>
+        <v>887.4069951331082</v>
       </c>
       <c r="X25" t="n">
-        <v>851.8821363738325</v>
+        <v>659.4174442350909</v>
       </c>
       <c r="Y25" t="n">
-        <v>631.0895572303024</v>
+        <v>659.4174442350909</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6208,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E26" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F26" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H26" t="n">
         <v>141.5554198924156</v>
@@ -6227,22 +6229,22 @@
         <v>276.3093906935954</v>
       </c>
       <c r="K26" t="n">
-        <v>597.708085861203</v>
+        <v>918.6120443066561</v>
       </c>
       <c r="L26" t="n">
-        <v>1446.817951496196</v>
+        <v>1676.497326176647</v>
       </c>
       <c r="M26" t="n">
-        <v>2408.222828443784</v>
+        <v>2192.88380496633</v>
       </c>
       <c r="N26" t="n">
-        <v>3370.552243872424</v>
+        <v>2722.239765227107</v>
       </c>
       <c r="O26" t="n">
-        <v>4114.52506777933</v>
+        <v>3585.752505936257</v>
       </c>
       <c r="P26" t="n">
-        <v>4495.258109903959</v>
+        <v>4285.066269150653</v>
       </c>
       <c r="Q26" t="n">
         <v>4733.000021926293</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>531.0709760837877</v>
+        <v>243.6307627976338</v>
       </c>
       <c r="C28" t="n">
-        <v>362.1347931558809</v>
+        <v>243.6307627976338</v>
       </c>
       <c r="D28" t="n">
-        <v>362.1347931558809</v>
+        <v>243.6307627976338</v>
       </c>
       <c r="E28" t="n">
-        <v>362.1347931558809</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F28" t="n">
-        <v>362.1347931558809</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G28" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H28" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I28" t="n">
         <v>95.71766921524075</v>
@@ -6406,28 +6408,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R28" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S28" t="n">
-        <v>1628.774119163341</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T28" t="n">
-        <v>1406.816559682884</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U28" t="n">
-        <v>1195.393480017932</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V28" t="n">
-        <v>940.7089918120448</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W28" t="n">
-        <v>940.7089918120448</v>
+        <v>665.4494356526518</v>
       </c>
       <c r="X28" t="n">
-        <v>712.7194409140275</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="Y28" t="n">
-        <v>712.7194409140275</v>
+        <v>243.6307627976338</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C29" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E29" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F29" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G29" t="n">
         <v>440.1593205155743</v>
@@ -6494,19 +6496,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U29" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V29" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W29" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X29" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y29" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="30">
@@ -6552,10 +6554,10 @@
         <v>1203.680327106303</v>
       </c>
       <c r="N30" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O30" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P30" t="n">
         <v>2436.525948037006</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1117.711255224911</v>
+        <v>516.5888373775792</v>
       </c>
       <c r="C31" t="n">
-        <v>953.668986560201</v>
+        <v>516.5888373775792</v>
       </c>
       <c r="D31" t="n">
-        <v>803.5523471478652</v>
+        <v>366.4721979652435</v>
       </c>
       <c r="E31" t="n">
-        <v>655.6392535654721</v>
+        <v>366.4721979652435</v>
       </c>
       <c r="F31" t="n">
-        <v>508.7493060675617</v>
+        <v>341.001780409306</v>
       </c>
       <c r="G31" t="n">
         <v>341.001780409306</v>
@@ -6643,28 +6645,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R31" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.816559682884</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="U31" t="n">
-        <v>1117.711255224911</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="V31" t="n">
-        <v>1117.711255224911</v>
+        <v>1436.436602286327</v>
       </c>
       <c r="W31" t="n">
-        <v>1117.711255224911</v>
+        <v>1147.019432249366</v>
       </c>
       <c r="X31" t="n">
-        <v>1117.711255224911</v>
+        <v>919.0298813513491</v>
       </c>
       <c r="Y31" t="n">
-        <v>1117.711255224911</v>
+        <v>698.237302207819</v>
       </c>
     </row>
     <row r="32">
@@ -6713,10 +6715,10 @@
         <v>3370.552243872424</v>
       </c>
       <c r="O32" t="n">
-        <v>3904.333227026024</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P32" t="n">
-        <v>4285.066269150653</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q32" t="n">
         <v>4733.000021926293</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>766.0742891208047</v>
+        <v>3601.937340914786</v>
       </c>
       <c r="C34" t="n">
-        <v>597.1381061928978</v>
+        <v>3433.001157986879</v>
       </c>
       <c r="D34" t="n">
-        <v>447.021466780562</v>
+        <v>3282.884518574543</v>
       </c>
       <c r="E34" t="n">
-        <v>341.001780409306</v>
+        <v>3282.884518574543</v>
       </c>
       <c r="F34" t="n">
-        <v>341.001780409306</v>
+        <v>3282.884518574543</v>
       </c>
       <c r="G34" t="n">
-        <v>341.001780409306</v>
+        <v>3115.136992916287</v>
       </c>
       <c r="H34" t="n">
-        <v>194.3872674976251</v>
+        <v>2968.522480004607</v>
       </c>
       <c r="I34" t="n">
-        <v>95.71766921524075</v>
+        <v>2968.522480004607</v>
       </c>
       <c r="J34" t="n">
-        <v>137.7436613720288</v>
+        <v>3010.548472161395</v>
       </c>
       <c r="K34" t="n">
-        <v>336.6421130738839</v>
+        <v>3209.44692386325</v>
       </c>
       <c r="L34" t="n">
-        <v>646.6900875150416</v>
+        <v>3519.494898304408</v>
       </c>
       <c r="M34" t="n">
-        <v>983.9813277239498</v>
+        <v>3856.786138513316</v>
       </c>
       <c r="N34" t="n">
-        <v>1318.687152545534</v>
+        <v>4191.4919633349</v>
       </c>
       <c r="O34" t="n">
-        <v>1611.825859961355</v>
+        <v>4484.630670750721</v>
       </c>
       <c r="P34" t="n">
-        <v>1839.135983203279</v>
+        <v>4711.940793992646</v>
       </c>
       <c r="Q34" t="n">
-        <v>1913.078649972671</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="R34" t="n">
-        <v>1821.238811302082</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S34" t="n">
-        <v>1821.238811302082</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="T34" t="n">
-        <v>1599.281251821626</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="U34" t="n">
-        <v>1310.175947363652</v>
+        <v>4496.778156304064</v>
       </c>
       <c r="V34" t="n">
-        <v>1055.491459157765</v>
+        <v>4242.093668098178</v>
       </c>
       <c r="W34" t="n">
-        <v>766.0742891208047</v>
+        <v>3952.676498061217</v>
       </c>
       <c r="X34" t="n">
-        <v>766.0742891208047</v>
+        <v>3952.676498061217</v>
       </c>
       <c r="Y34" t="n">
-        <v>766.0742891208047</v>
+        <v>3783.585805745025</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6937,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K35" t="n">
-        <v>597.708085861203</v>
+        <v>765.113734881556</v>
       </c>
       <c r="L35" t="n">
-        <v>1446.817951496196</v>
+        <v>1200.738998111603</v>
       </c>
       <c r="M35" t="n">
-        <v>2408.222828443784</v>
+        <v>2162.143875059191</v>
       </c>
       <c r="N35" t="n">
-        <v>3370.552243872424</v>
+        <v>3124.473290487831</v>
       </c>
       <c r="O35" t="n">
-        <v>4114.52506777933</v>
+        <v>3839.273971351772</v>
       </c>
       <c r="P35" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q35" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R35" t="n">
         <v>4785.883460762037</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>264.6538521431477</v>
+        <v>391.9611321518236</v>
       </c>
       <c r="C37" t="n">
-        <v>95.71766921524075</v>
+        <v>391.9611321518236</v>
       </c>
       <c r="D37" t="n">
-        <v>95.71766921524075</v>
+        <v>391.9611321518236</v>
       </c>
       <c r="E37" t="n">
-        <v>95.71766921524075</v>
+        <v>391.9611321518236</v>
       </c>
       <c r="F37" t="n">
-        <v>95.71766921524075</v>
+        <v>245.0711846539132</v>
       </c>
       <c r="G37" t="n">
-        <v>95.71766921524075</v>
+        <v>245.0711846539132</v>
       </c>
       <c r="H37" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I37" t="n">
         <v>95.71766921524075</v>
@@ -7117,28 +7119,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R37" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S37" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T37" t="n">
-        <v>1728.291409715756</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U37" t="n">
-        <v>1439.186105257782</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V37" t="n">
-        <v>1184.501617051895</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="W37" t="n">
-        <v>895.0844470149349</v>
+        <v>573.6095969820633</v>
       </c>
       <c r="X37" t="n">
-        <v>667.0948961169175</v>
+        <v>573.6095969820633</v>
       </c>
       <c r="Y37" t="n">
-        <v>446.3023169733874</v>
+        <v>573.6095969820633</v>
       </c>
     </row>
     <row r="38">
@@ -7175,16 +7177,16 @@
         <v>276.3093906935954</v>
       </c>
       <c r="K38" t="n">
-        <v>597.708085861203</v>
+        <v>891.6527714639053</v>
       </c>
       <c r="L38" t="n">
-        <v>1446.817951496196</v>
+        <v>1327.278034693952</v>
       </c>
       <c r="M38" t="n">
-        <v>2408.222828443784</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N38" t="n">
-        <v>3370.552243872424</v>
+        <v>3251.012327070181</v>
       </c>
       <c r="O38" t="n">
         <v>4114.52506777933</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>856.1880455474677</v>
+        <v>1122.605169488108</v>
       </c>
       <c r="C40" t="n">
-        <v>687.2518626195608</v>
+        <v>953.668986560201</v>
       </c>
       <c r="D40" t="n">
-        <v>537.1352232072251</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="E40" t="n">
-        <v>389.222129624832</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="F40" t="n">
-        <v>242.3321821269216</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G40" t="n">
-        <v>242.3321821269216</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H40" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I40" t="n">
         <v>95.71766921524075</v>
@@ -7363,19 +7365,19 @@
         <v>1913.078649972671</v>
       </c>
       <c r="U40" t="n">
-        <v>1623.973345514697</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="V40" t="n">
-        <v>1369.288857308811</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="W40" t="n">
-        <v>1079.87168727185</v>
+        <v>1753.035764359895</v>
       </c>
       <c r="X40" t="n">
-        <v>856.1880455474677</v>
+        <v>1525.046213461878</v>
       </c>
       <c r="Y40" t="n">
-        <v>856.1880455474677</v>
+        <v>1304.253634318348</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7393,7 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
         <v>1266.317301993267</v>
@@ -7412,16 +7414,16 @@
         <v>276.3093906935954</v>
       </c>
       <c r="K41" t="n">
-        <v>597.708085861203</v>
+        <v>891.6527714639053</v>
       </c>
       <c r="L41" t="n">
-        <v>1446.817951496196</v>
+        <v>1327.278034693952</v>
       </c>
       <c r="M41" t="n">
-        <v>2408.222828443784</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N41" t="n">
-        <v>3370.552243872424</v>
+        <v>3251.012327070181</v>
       </c>
       <c r="O41" t="n">
         <v>4114.52506777933</v>
@@ -7445,13 +7447,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V41" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W41" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X41" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y41" t="n">
         <v>2765.933610202796</v>
@@ -7491,19 +7493,19 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K42" t="n">
-        <v>488.1430095111811</v>
+        <v>414.2869325418658</v>
       </c>
       <c r="L42" t="n">
-        <v>843.4975491433823</v>
+        <v>769.6414721740671</v>
       </c>
       <c r="M42" t="n">
-        <v>1277.536404075618</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N42" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O42" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P42" t="n">
         <v>2436.525948037006</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3089.472116400471</v>
+        <v>227.483532919606</v>
       </c>
       <c r="C43" t="n">
-        <v>3089.472116400471</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="D43" t="n">
-        <v>3089.472116400471</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="E43" t="n">
-        <v>3089.472116400471</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="F43" t="n">
-        <v>2968.522480004607</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="G43" t="n">
-        <v>2968.522480004607</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H43" t="n">
-        <v>2968.522480004607</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I43" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J43" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K43" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L43" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M43" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N43" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O43" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P43" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q43" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R43" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S43" t="n">
-        <v>4593.418768623295</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T43" t="n">
-        <v>4371.461209142839</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="U43" t="n">
-        <v>4082.355904684866</v>
+        <v>1402.015786034241</v>
       </c>
       <c r="V43" t="n">
-        <v>3827.671416478979</v>
+        <v>1147.331297828354</v>
       </c>
       <c r="W43" t="n">
-        <v>3538.254246442018</v>
+        <v>857.9141277913932</v>
       </c>
       <c r="X43" t="n">
-        <v>3310.264695544001</v>
+        <v>629.9245768933758</v>
       </c>
       <c r="Y43" t="n">
-        <v>3089.472116400471</v>
+        <v>409.1319977498457</v>
       </c>
     </row>
     <row r="44">
@@ -7649,19 +7651,19 @@
         <v>276.3093906935954</v>
       </c>
       <c r="K44" t="n">
-        <v>597.708085861203</v>
+        <v>918.6120443066561</v>
       </c>
       <c r="L44" t="n">
-        <v>1446.817951496196</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M44" t="n">
-        <v>2408.222828443784</v>
+        <v>2284.108388731333</v>
       </c>
       <c r="N44" t="n">
-        <v>3370.552243872424</v>
+        <v>3246.437804159973</v>
       </c>
       <c r="O44" t="n">
-        <v>4114.52506777933</v>
+        <v>4109.950544869122</v>
       </c>
       <c r="P44" t="n">
         <v>4495.258109903959</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1122.605169488108</v>
+        <v>414.7704915554834</v>
       </c>
       <c r="C46" t="n">
-        <v>953.668986560201</v>
+        <v>245.8343086275765</v>
       </c>
       <c r="D46" t="n">
-        <v>803.5523471478652</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E46" t="n">
-        <v>655.6392535654721</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F46" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G46" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H46" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I46" t="n">
         <v>95.71766921524075</v>
@@ -7831,25 +7833,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S46" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T46" t="n">
-        <v>1691.121090492214</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U46" t="n">
-        <v>1691.121090492214</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V46" t="n">
-        <v>1525.046213461878</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W46" t="n">
-        <v>1525.046213461878</v>
+        <v>665.4494356526518</v>
       </c>
       <c r="X46" t="n">
-        <v>1525.046213461878</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="Y46" t="n">
-        <v>1304.253634318348</v>
+        <v>437.4598847546345</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451751</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>34.15539214908347</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,10 +8929,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>77.88388639948886</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>296.9138238411135</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8939,16 +8941,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>260.0527905534084</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>296.9138238411135</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9176,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9641,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>296.9138238411135</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>260.0527905534082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9875,25 +9877,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>325.5151703433776</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>260.0527905534082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10200,13 +10202,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>74.60209794880348</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>74.60209794880365</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10361,13 +10363,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>47.73779989350282</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10598,16 +10600,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>260.0527905534082</v>
+        <v>230.5859793988977</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>296.9138238411136</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10835,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>260.0527905534082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11060,10 +11062,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>296.9138238411136</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11072,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>260.0527905534082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>74.60209794880365</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11297,22 +11299,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>260.0527905534082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>4.62073021233067</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.013280433915</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>128.080541579943</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0700504016732</v>
@@ -23671,7 +23673,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>257.5311158333668</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>217.4796755697505</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>100.2099876698022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>108.8922026517555</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S19" t="n">
         <v>190.5400452173542</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>66.75132015023668</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S22" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>128.080541579943</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>84.06545967569505</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
-        <v>94.88103279452318</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
         <v>97.68290229956055</v>
@@ -24412,7 +24414,7 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S25" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.7379838856521</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>76.90540254509082</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>26.69382261466419</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>4.844975120565238</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>120.2053346425531</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>41.47447313902568</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S34" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>51.1848679590652</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
-        <v>145.148367782564</v>
+        <v>94.97128979783884</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>36.79861603130621</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>128.080541579943</v>
       </c>
       <c r="X40" t="n">
-        <v>4.262850081898847</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>134.4815183308668</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>25.68090799102522</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0700504016732</v>
@@ -25804,7 +25806,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>157.3694809147778</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S46" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>87.72351506379493</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859387.7168682847</v>
+        <v>859387.7168682849</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>859387.7168682849</v>
+        <v>859387.7168682846</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859387.7168682847</v>
+        <v>859387.7168682849</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>859387.7168682847</v>
+        <v>859387.7168682849</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859387.7168682849</v>
+        <v>859387.7168682847</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>859387.7168682847</v>
+        <v>859387.7168682849</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>859387.7168682849</v>
+        <v>859387.7168682847</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049986</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049988</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.238904999</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
-        <v>555113.0228891707</v>
+        <v>555113.0228891708</v>
       </c>
       <c r="F2" t="n">
         <v>555113.0228891704</v>
       </c>
       <c r="G2" t="n">
+        <v>555113.0228891702</v>
+      </c>
+      <c r="H2" t="n">
         <v>555113.0228891706</v>
       </c>
-      <c r="H2" t="n">
-        <v>555113.0228891704</v>
-      </c>
       <c r="I2" t="n">
+        <v>555113.0228891703</v>
+      </c>
+      <c r="J2" t="n">
+        <v>555113.0228891703</v>
+      </c>
+      <c r="K2" t="n">
+        <v>555113.0228891703</v>
+      </c>
+      <c r="L2" t="n">
         <v>555113.0228891706</v>
       </c>
-      <c r="J2" t="n">
-        <v>555113.0228891706</v>
-      </c>
-      <c r="K2" t="n">
-        <v>555113.0228891707</v>
-      </c>
-      <c r="L2" t="n">
-        <v>555113.0228891707</v>
-      </c>
       <c r="M2" t="n">
-        <v>555113.0228891707</v>
+        <v>555113.0228891703</v>
       </c>
       <c r="N2" t="n">
-        <v>555113.0228891707</v>
+        <v>555113.0228891708</v>
       </c>
       <c r="O2" t="n">
-        <v>555113.0228891706</v>
+        <v>555113.0228891702</v>
       </c>
       <c r="P2" t="n">
-        <v>555113.0228891704</v>
+        <v>555113.0228891703</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518284</v>
+        <v>708251.0967518282</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
-        <v>27510.00885503008</v>
+        <v>27510.00885503007</v>
       </c>
       <c r="F4" t="n">
         <v>27510.00885503007</v>
       </c>
       <c r="G4" t="n">
-        <v>27510.00885503008</v>
+        <v>27510.00885503007</v>
       </c>
       <c r="H4" t="n">
         <v>27510.00885503007</v>
@@ -26442,19 +26444,19 @@
         <v>27510.00885503007</v>
       </c>
       <c r="K4" t="n">
+        <v>27510.00885503008</v>
+      </c>
+      <c r="L4" t="n">
         <v>27510.00885503007</v>
-      </c>
-      <c r="L4" t="n">
-        <v>27510.00885503006</v>
       </c>
       <c r="M4" t="n">
         <v>27510.00885503007</v>
       </c>
       <c r="N4" t="n">
-        <v>27510.00885503007</v>
+        <v>27510.00885503008</v>
       </c>
       <c r="O4" t="n">
-        <v>27510.00885503007</v>
+        <v>27510.00885503008</v>
       </c>
       <c r="P4" t="n">
         <v>27510.00885503007</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-299162.2243006866</v>
+        <v>-299162.2243006869</v>
       </c>
       <c r="C6" t="n">
-        <v>290805.654913858</v>
+        <v>290805.6549138578</v>
       </c>
       <c r="D6" t="n">
         <v>290805.6549138578</v>
       </c>
       <c r="E6" t="n">
-        <v>-276615.796109757</v>
+        <v>-276615.7961097567</v>
       </c>
       <c r="F6" t="n">
         <v>431635.3006420712</v>
       </c>
       <c r="G6" t="n">
+        <v>431635.3006420709</v>
+      </c>
+      <c r="H6" t="n">
         <v>431635.3006420713</v>
       </c>
-      <c r="H6" t="n">
-        <v>431635.3006420712</v>
-      </c>
       <c r="I6" t="n">
+        <v>431635.3006420711</v>
+      </c>
+      <c r="J6" t="n">
+        <v>255212.0814494782</v>
+      </c>
+      <c r="K6" t="n">
+        <v>431635.3006420711</v>
+      </c>
+      <c r="L6" t="n">
         <v>431635.3006420713</v>
       </c>
-      <c r="J6" t="n">
-        <v>255212.0814494784</v>
-      </c>
-      <c r="K6" t="n">
-        <v>431635.3006420714</v>
-      </c>
-      <c r="L6" t="n">
-        <v>431635.3006420714</v>
-      </c>
       <c r="M6" t="n">
-        <v>301505.060672662</v>
+        <v>301505.0606726616</v>
       </c>
       <c r="N6" t="n">
-        <v>431635.3006420714</v>
+        <v>431635.3006420715</v>
       </c>
       <c r="O6" t="n">
-        <v>431635.3006420713</v>
+        <v>431635.3006420709</v>
       </c>
       <c r="P6" t="n">
-        <v>431635.3006420712</v>
+        <v>431635.3006420711</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545555</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731071</v>
+        <v>687.498757273107</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>40.29708037409927</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>139.1552234604503</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,7 +27438,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>38.8419718078938</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>56.01837628787189</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>262.7091563715054</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>128.2387900191175</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>225.5922774579928</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>69.94932100564989</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>221.5269229679696</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>144.3734616880413</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>57.43600972671234</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>186.6211234951019</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355119</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>351.5124954532401</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K11" t="n">
-        <v>648.7905592051118</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L11" t="n">
-        <v>440.0255184141886</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M11" t="n">
-        <v>521.6025038279633</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N11" t="n">
         <v>972.0499145743842</v>
       </c>
       <c r="O11" t="n">
-        <v>525.5903025117419</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P11" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q11" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R11" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35647,10 +35649,10 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K14" t="n">
-        <v>402.5290330334359</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L14" t="n">
-        <v>440.0255184141886</v>
+        <v>736.9393422553021</v>
       </c>
       <c r="M14" t="n">
         <v>971.1160373207958</v>
@@ -35659,16 +35661,16 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O14" t="n">
-        <v>491.4349103626585</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P14" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q14" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R14" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35884,10 +35886,10 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K17" t="n">
-        <v>584.6979371873555</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L17" t="n">
-        <v>857.6867329646391</v>
+        <v>736.9393422553021</v>
       </c>
       <c r="M17" t="n">
         <v>971.1160373207958</v>
@@ -35896,7 +35898,7 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O17" t="n">
-        <v>491.4349103626585</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P17" t="n">
         <v>384.5788304289183</v>
@@ -36361,7 +36363,7 @@
         <v>324.645146633947</v>
       </c>
       <c r="L23" t="n">
-        <v>857.6867329646391</v>
+        <v>736.9393422553021</v>
       </c>
       <c r="M23" t="n">
         <v>971.1160373207958</v>
@@ -36370,7 +36372,7 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O23" t="n">
-        <v>751.4877009160666</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P23" t="n">
         <v>384.5788304289183</v>
@@ -36595,25 +36597,25 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K26" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L26" t="n">
-        <v>857.6867329646391</v>
+        <v>765.5406887575663</v>
       </c>
       <c r="M26" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N26" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O26" t="n">
-        <v>751.4877009160666</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P26" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q26" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R26" t="n">
         <v>53.4176149856001</v>
@@ -36920,13 +36922,13 @@
         <v>438.4230857901371</v>
       </c>
       <c r="N30" t="n">
-        <v>539.1831250347815</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O30" t="n">
         <v>402.556638938372</v>
       </c>
       <c r="P30" t="n">
-        <v>303.5588430275571</v>
+        <v>378.1609409763607</v>
       </c>
       <c r="Q30" t="n">
         <v>152.4976168106822</v>
@@ -37081,13 +37083,13 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O32" t="n">
-        <v>539.1727102561613</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P32" t="n">
         <v>384.5788304289183</v>
       </c>
       <c r="Q32" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R32" t="n">
         <v>53.4176149856001</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K35" t="n">
         <v>324.645146633947</v>
       </c>
       <c r="L35" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M35" t="n">
         <v>971.1160373207958</v>
@@ -37318,16 +37320,16 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O35" t="n">
-        <v>751.4877009160666</v>
+        <v>722.0208897615562</v>
       </c>
       <c r="P35" t="n">
         <v>384.5788304289183</v>
       </c>
       <c r="Q35" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R35" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37543,10 +37545,10 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K38" t="n">
-        <v>324.645146633947</v>
+        <v>621.5589704750606</v>
       </c>
       <c r="L38" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M38" t="n">
         <v>971.1160373207958</v>
@@ -37555,7 +37557,7 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O38" t="n">
-        <v>751.4877009160666</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P38" t="n">
         <v>384.5788304289183</v>
@@ -37780,10 +37782,10 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K41" t="n">
-        <v>324.645146633947</v>
+        <v>621.5589704750606</v>
       </c>
       <c r="L41" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M41" t="n">
         <v>971.1160373207958</v>
@@ -37792,7 +37794,7 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O41" t="n">
-        <v>751.4877009160666</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P41" t="n">
         <v>384.5788304289183</v>
@@ -37859,7 +37861,7 @@
         <v>89.63772240239243</v>
       </c>
       <c r="K42" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L42" t="n">
         <v>358.9439794264659</v>
@@ -37874,7 +37876,7 @@
         <v>402.556638938372</v>
       </c>
       <c r="P42" t="n">
-        <v>303.5588430275571</v>
+        <v>378.1609409763607</v>
       </c>
       <c r="Q42" t="n">
         <v>152.4976168106822</v>
@@ -38017,22 +38019,22 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K44" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L44" t="n">
         <v>857.6867329646391</v>
       </c>
       <c r="M44" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N44" t="n">
         <v>972.0499145743842</v>
       </c>
       <c r="O44" t="n">
-        <v>751.4877009160666</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P44" t="n">
-        <v>384.5788304289183</v>
+        <v>389.1995606412489</v>
       </c>
       <c r="Q44" t="n">
         <v>240.1433454771049</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2070848.913305978</v>
+        <v>2074399.473093372</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.53325642</v>
+        <v>6239134.533256418</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069174</v>
+        <v>840694.9721069175</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>28.92900240760912</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>266.1512514744988</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -752,10 +752,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
-        <v>70.80276983270106</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>378.4326166767232</v>
       </c>
       <c r="G5" t="n">
-        <v>207.9481066377159</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.03250833502995</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>28.51033041214347</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>13.78417002079501</v>
       </c>
       <c r="H8" t="n">
-        <v>109.4422623037129</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>81.80445351869577</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>43.31785343913947</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.0203559212046</v>
+        <v>411.0203559212045</v>
       </c>
       <c r="H11" t="n">
         <v>295.6178616169271</v>
       </c>
       <c r="I11" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I12" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.17551728983875</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388263</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S13" t="n">
-        <v>190.5400452173542</v>
+        <v>53.28869456370382</v>
       </c>
       <c r="T13" t="n">
         <v>219.7379838856521</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H14" t="n">
-        <v>295.6178616169271</v>
+        <v>295.617861616927</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I15" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>70.08183534290819</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>27.59375486821506</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I18" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.81869974802325</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>47.75537757850514</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>190.5400452173542</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.0203559212046</v>
+        <v>411.0203559212045</v>
       </c>
       <c r="H20" t="n">
         <v>295.6178616169271</v>
       </c>
       <c r="I20" t="n">
-        <v>45.37937317040311</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I21" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.7401400319059</v>
+        <v>28.81869974802302</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S22" t="n">
         <v>190.5400452173542</v>
@@ -2338,7 +2338,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I23" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I24" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>190.5400452173542</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>4.123279900376951</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>171.0779722853726</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I26" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I27" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S28" t="n">
-        <v>130.4482050673225</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
-        <v>219.7379838856521</v>
+        <v>47.54436173431298</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I29" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I30" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>74.84472479846738</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
-        <v>135.2009709794793</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I32" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I33" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>130.4482050673223</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
-        <v>247.2677889321223</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T35" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U35" t="n">
         <v>251.0030623803221</v>
@@ -3365,7 +3365,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I36" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>74.57184068276668</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
         <v>286.2142514133935</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>28.99188250322514</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>111.4352990145559</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T38" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367008</v>
       </c>
       <c r="U38" t="n">
         <v>251.0030623803221</v>
@@ -3602,7 +3602,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I39" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>119.7401400319056</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
         <v>286.2142514133935</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>95.84175262388334</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I41" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I42" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>119.7401400319056</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
-        <v>159.6461437356205</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
         <v>286.2142514133935</v>
@@ -3997,7 +3997,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040295</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T44" t="n">
         <v>204.3497241367009</v>
@@ -4076,7 +4076,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I45" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>190.5400452173542</v>
@@ -4191,13 +4191,13 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2142514133935</v>
+        <v>226.1224112633616</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>135.5097179026769</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>83.16419637350498</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.468598880909</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>656.6110348804735</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>506.4943954681378</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2268.654643287635</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C5" t="n">
-        <v>1899.692126347224</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D5" t="n">
-        <v>1541.426427740473</v>
+        <v>835.9098068403443</v>
       </c>
       <c r="E5" t="n">
-        <v>1155.638175142229</v>
+        <v>450.1215542421001</v>
       </c>
       <c r="F5" t="n">
-        <v>744.6522703526214</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548715</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287635</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.654643287635</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4664,7 +4664,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>686.6820060902423</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>517.7458231623355</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799423</v>
+        <v>229.6312428658945</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.3221432721089</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>185.3596263316971</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>185.3596263316971</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>185.3596263316971</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>178.4141255824937</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>164.4907215210846</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,52 +4804,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533155</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073314</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224085</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362306</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424004</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572643</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U10" t="n">
-        <v>182.2302673832259</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5032,10 +5032,10 @@
         <v>855.3313972036597</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H11" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I11" t="n">
         <v>95.71766921524075</v>
@@ -5044,16 +5044,16 @@
         <v>443.7150397139486</v>
       </c>
       <c r="K11" t="n">
-        <v>1086.01769332701</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.642956557057</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M11" t="n">
-        <v>2038.029435346741</v>
+        <v>2451.514037751686</v>
       </c>
       <c r="N11" t="n">
-        <v>2657.180509552854</v>
+        <v>2980.869998012462</v>
       </c>
       <c r="O11" t="n">
         <v>3520.693250262004</v>
@@ -5120,25 +5120,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K12" t="n">
-        <v>488.1430095111792</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L12" t="n">
-        <v>843.4975491433806</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M12" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N12" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O12" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q12" t="n">
         <v>2587.498588679581</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.3144713837966</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="C13" t="n">
-        <v>411.3782884558896</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D13" t="n">
-        <v>411.3782884558896</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E13" t="n">
         <v>263.4651948734965</v>
@@ -5205,10 +5205,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L13" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M13" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N13" t="n">
         <v>1318.687152545534</v>
@@ -5220,31 +5220,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q13" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R13" t="n">
         <v>1821.238811302083</v>
       </c>
       <c r="S13" t="n">
-        <v>1628.774119163342</v>
+        <v>1767.411847096321</v>
       </c>
       <c r="T13" t="n">
-        <v>1406.816559682885</v>
+        <v>1545.454287615865</v>
       </c>
       <c r="U13" t="n">
-        <v>1117.711255224912</v>
+        <v>1256.348983157892</v>
       </c>
       <c r="V13" t="n">
-        <v>863.0267670190248</v>
+        <v>1001.664494952005</v>
       </c>
       <c r="W13" t="n">
-        <v>863.0267670190248</v>
+        <v>712.2473249150439</v>
       </c>
       <c r="X13" t="n">
-        <v>635.0372161210074</v>
+        <v>484.2577740170266</v>
       </c>
       <c r="Y13" t="n">
-        <v>635.0372161210074</v>
+        <v>263.4651948734965</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>440.1593205155742</v>
       </c>
       <c r="H14" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I14" t="n">
         <v>95.71766921524075</v>
@@ -5281,13 +5281,13 @@
         <v>443.7150397139486</v>
       </c>
       <c r="K14" t="n">
-        <v>1086.01769332701</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L14" t="n">
-        <v>1935.127558962003</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M14" t="n">
-        <v>2451.514037751687</v>
+        <v>2504.816728742196</v>
       </c>
       <c r="N14" t="n">
         <v>3034.172689002972</v>
@@ -5357,25 +5357,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K15" t="n">
-        <v>488.1430095111792</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L15" t="n">
-        <v>843.4975491433806</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M15" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N15" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O15" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q15" t="n">
         <v>2587.498588679581</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>482.1680211254939</v>
+        <v>432.4013778014034</v>
       </c>
       <c r="C16" t="n">
-        <v>411.3782884558896</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D16" t="n">
-        <v>411.3782884558896</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E16" t="n">
         <v>263.4651948734965</v>
@@ -5442,10 +5442,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L16" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M16" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N16" t="n">
         <v>1318.687152545534</v>
@@ -5457,31 +5457,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q16" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1913.078649972672</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.078649972672</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T16" t="n">
-        <v>1691.121090492215</v>
+        <v>1406.816559682885</v>
       </c>
       <c r="U16" t="n">
-        <v>1402.015786034242</v>
+        <v>1406.816559682885</v>
       </c>
       <c r="V16" t="n">
-        <v>1402.015786034242</v>
+        <v>1152.132071476998</v>
       </c>
       <c r="W16" t="n">
-        <v>1112.598615997281</v>
+        <v>862.714901440037</v>
       </c>
       <c r="X16" t="n">
-        <v>884.6090650992637</v>
+        <v>834.8424217751733</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.8164859557336</v>
+        <v>614.0498426316432</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C17" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E17" t="n">
         <v>1266.317301993267</v>
@@ -5515,28 +5515,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>276.3093906935956</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K17" t="n">
-        <v>597.7080858612034</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L17" t="n">
         <v>1446.817951496196</v>
       </c>
       <c r="M17" t="n">
-        <v>2408.222828443785</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N17" t="n">
-        <v>3370.552243872426</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O17" t="n">
-        <v>4114.52506777933</v>
+        <v>3857.072805131457</v>
       </c>
       <c r="P17" t="n">
-        <v>4495.258109903959</v>
+        <v>4237.805847256086</v>
       </c>
       <c r="Q17" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R17" t="n">
         <v>4785.883460762037</v>
@@ -5548,19 +5548,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U17" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V17" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y17" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K18" t="n">
-        <v>488.1430095111792</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L18" t="n">
-        <v>843.4975491433806</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M18" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N18" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O18" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q18" t="n">
         <v>2587.498588679581</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.71766921524075</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="C19" t="n">
-        <v>95.71766921524075</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="D19" t="n">
-        <v>95.71766921524075</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="E19" t="n">
-        <v>95.71766921524075</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="F19" t="n">
-        <v>95.71766921524075</v>
+        <v>290.5699372567248</v>
       </c>
       <c r="G19" t="n">
-        <v>95.71766921524075</v>
+        <v>290.5699372567248</v>
       </c>
       <c r="H19" t="n">
-        <v>95.71766921524075</v>
+        <v>143.9554243450439</v>
       </c>
       <c r="I19" t="n">
         <v>95.71766921524075</v>
@@ -5679,10 +5679,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L19" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M19" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N19" t="n">
         <v>1318.687152545534</v>
@@ -5694,31 +5694,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q19" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R19" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S19" t="n">
-        <v>1628.774119163342</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T19" t="n">
-        <v>1406.816559682885</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U19" t="n">
-        <v>1117.711255224912</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V19" t="n">
-        <v>863.0267670190248</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W19" t="n">
-        <v>573.6095969820642</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X19" t="n">
-        <v>345.6200460840469</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.8274669405168</v>
+        <v>437.4598847546351</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E20" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G20" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H20" t="n">
         <v>141.5554198924156</v>
@@ -5752,25 +5752,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K20" t="n">
-        <v>1086.01769332701</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.642956557057</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M20" t="n">
-        <v>2038.029435346741</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N20" t="n">
-        <v>2657.180509552854</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O20" t="n">
-        <v>3520.693250262004</v>
+        <v>3857.072805131457</v>
       </c>
       <c r="P20" t="n">
-        <v>4220.007013476401</v>
+        <v>4237.805847256086</v>
       </c>
       <c r="Q20" t="n">
         <v>4667.940766252041</v>
@@ -5831,25 +5831,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K21" t="n">
-        <v>488.1430095111792</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L21" t="n">
-        <v>843.4975491433806</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M21" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N21" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O21" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q21" t="n">
         <v>2587.498588679581</v>
@@ -5916,10 +5916,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L22" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M22" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N22" t="n">
         <v>1318.687152545534</v>
@@ -5931,31 +5931,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q22" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>1913.078649972672</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S22" t="n">
-        <v>1720.61395783393</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.656398353473</v>
+        <v>1406.816559682885</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.5510938955</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V22" t="n">
-        <v>954.8666056896133</v>
+        <v>863.0267670190245</v>
       </c>
       <c r="W22" t="n">
-        <v>665.4494356526527</v>
+        <v>573.609596982064</v>
       </c>
       <c r="X22" t="n">
-        <v>437.4598847546354</v>
+        <v>345.6200460840466</v>
       </c>
       <c r="Y22" t="n">
-        <v>216.6673056111053</v>
+        <v>124.8274669405165</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H23" t="n">
         <v>141.5554198924156</v>
@@ -5989,28 +5989,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>276.3093906935956</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K23" t="n">
-        <v>597.7080858612034</v>
+        <v>918.6120443066563</v>
       </c>
       <c r="L23" t="n">
-        <v>1446.817951496196</v>
+        <v>1611.438070502394</v>
       </c>
       <c r="M23" t="n">
-        <v>2408.222828443785</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N23" t="n">
-        <v>3370.552243872426</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O23" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P23" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q23" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R23" t="n">
         <v>4785.883460762037</v>
@@ -6068,25 +6068,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>258.3150913629225</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K24" t="n">
-        <v>488.1430095111792</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L24" t="n">
-        <v>843.4975491433806</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M24" t="n">
-        <v>1277.536404075617</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N24" t="n">
-        <v>1737.471620890735</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O24" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.525948037005</v>
+        <v>2362.669871067691</v>
       </c>
       <c r="Q24" t="n">
         <v>2587.498588679581</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>410.0797077851773</v>
+        <v>264.6538521431477</v>
       </c>
       <c r="C25" t="n">
-        <v>410.0797077851773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D25" t="n">
-        <v>410.0797077851773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E25" t="n">
-        <v>410.0797077851773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F25" t="n">
-        <v>410.0797077851773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G25" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H25" t="n">
         <v>95.71766921524075</v>
@@ -6153,10 +6153,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L25" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M25" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N25" t="n">
         <v>1318.687152545534</v>
@@ -6168,31 +6168,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q25" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R25" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S25" t="n">
-        <v>1628.774119163342</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T25" t="n">
-        <v>1406.816559682885</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U25" t="n">
-        <v>1117.711255224912</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V25" t="n">
-        <v>863.0267670190248</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W25" t="n">
-        <v>858.8618378267248</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X25" t="n">
-        <v>630.8722869287075</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y25" t="n">
-        <v>410.0797077851773</v>
+        <v>264.6538521431477</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K26" t="n">
-        <v>1086.01769332701</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L26" t="n">
-        <v>1521.642956557057</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M26" t="n">
-        <v>2038.029435346741</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N26" t="n">
-        <v>3000.358850775381</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O26" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P26" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q26" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6305,25 +6305,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K27" t="n">
-        <v>488.1430095111792</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L27" t="n">
-        <v>843.4975491433806</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M27" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N27" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O27" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q27" t="n">
         <v>2587.498588679581</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.71766921524075</v>
+        <v>854.9993882778166</v>
       </c>
       <c r="C28" t="n">
-        <v>95.71766921524075</v>
+        <v>854.9993882778166</v>
       </c>
       <c r="D28" t="n">
-        <v>95.71766921524075</v>
+        <v>704.8827488654808</v>
       </c>
       <c r="E28" t="n">
-        <v>95.71766921524075</v>
+        <v>556.9696552830877</v>
       </c>
       <c r="F28" t="n">
-        <v>95.71766921524075</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G28" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H28" t="n">
         <v>95.71766921524075</v>
@@ -6390,10 +6390,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L28" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M28" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N28" t="n">
         <v>1318.687152545534</v>
@@ -6405,31 +6405,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q28" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R28" t="n">
-        <v>1913.078649972672</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S28" t="n">
-        <v>1781.312786268305</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.355226787849</v>
+        <v>1580.749511350904</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.249922329876</v>
+        <v>1580.749511350904</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.565434123989</v>
+        <v>1326.065023145017</v>
       </c>
       <c r="W28" t="n">
-        <v>726.1482640870279</v>
+        <v>1036.647853108056</v>
       </c>
       <c r="X28" t="n">
-        <v>498.1587131890105</v>
+        <v>1036.647853108056</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.3661340454805</v>
+        <v>1036.647853108056</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C29" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E29" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F29" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H29" t="n">
         <v>141.5554198924156</v>
@@ -6463,19 +6463,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J29" t="n">
-        <v>276.3093906935956</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K29" t="n">
-        <v>918.6120443066565</v>
+        <v>918.6120443066563</v>
       </c>
       <c r="L29" t="n">
-        <v>1767.72190994165</v>
+        <v>1354.237307536703</v>
       </c>
       <c r="M29" t="n">
-        <v>2504.816728742196</v>
+        <v>1870.623786326387</v>
       </c>
       <c r="N29" t="n">
-        <v>3034.172689002972</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O29" t="n">
         <v>3520.693250262004</v>
@@ -6496,19 +6496,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U29" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V29" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W29" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X29" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y29" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K30" t="n">
-        <v>488.1430095111792</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L30" t="n">
-        <v>843.4975491433806</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M30" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N30" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O30" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q30" t="n">
         <v>2587.498588679581</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.71766921524075</v>
+        <v>877.3210582940426</v>
       </c>
       <c r="C31" t="n">
-        <v>95.71766921524075</v>
+        <v>708.3848753661357</v>
       </c>
       <c r="D31" t="n">
-        <v>95.71766921524075</v>
+        <v>558.2682359537999</v>
       </c>
       <c r="E31" t="n">
-        <v>95.71766921524075</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="F31" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G31" t="n">
         <v>95.71766921524075</v>
@@ -6627,10 +6627,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L31" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M31" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N31" t="n">
         <v>1318.687152545534</v>
@@ -6642,31 +6642,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q31" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R31" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>1628.774119163342</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.816559682885</v>
+        <v>1691.121090492215</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.249922329876</v>
+        <v>1691.121090492215</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.565434123989</v>
+        <v>1691.121090492215</v>
       </c>
       <c r="W31" t="n">
-        <v>726.1482640870279</v>
+        <v>1401.703920455254</v>
       </c>
       <c r="X31" t="n">
-        <v>498.1587131890105</v>
+        <v>1173.714369557237</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.3661340454805</v>
+        <v>952.9217904137066</v>
       </c>
     </row>
     <row r="32">
@@ -6700,19 +6700,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J32" t="n">
-        <v>276.3093906935956</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K32" t="n">
-        <v>911.1416242268227</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L32" t="n">
-        <v>1760.251489861816</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M32" t="n">
-        <v>2721.656366809404</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N32" t="n">
-        <v>3251.01232707018</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O32" t="n">
         <v>4114.52506777933</v>
@@ -6779,25 +6779,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K33" t="n">
-        <v>488.1430095111792</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L33" t="n">
-        <v>843.4975491433806</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M33" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N33" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O33" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q33" t="n">
         <v>2587.498588679581</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>709.5735326357868</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C34" t="n">
-        <v>540.6373497078799</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D34" t="n">
-        <v>390.5207102955442</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E34" t="n">
-        <v>242.6076167131511</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F34" t="n">
         <v>95.71766921524075</v>
@@ -6864,10 +6864,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L34" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M34" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N34" t="n">
         <v>1318.687152545534</v>
@@ -6879,31 +6879,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q34" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R34" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S34" t="n">
-        <v>1913.078649972672</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T34" t="n">
-        <v>1913.078649972672</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U34" t="n">
-        <v>1663.313206606892</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V34" t="n">
-        <v>1408.628718401005</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W34" t="n">
-        <v>1119.211548364044</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X34" t="n">
-        <v>891.2219974660266</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y34" t="n">
-        <v>891.2219974660266</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="35">
@@ -6919,46 +6919,46 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E35" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H35" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I35" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>280.8839136038011</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K35" t="n">
-        <v>923.186567216862</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L35" t="n">
-        <v>1772.296432851855</v>
+        <v>1611.438070502394</v>
       </c>
       <c r="M35" t="n">
-        <v>2288.682911641539</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N35" t="n">
-        <v>3251.01232707018</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O35" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P35" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q35" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R35" t="n">
         <v>4785.883460762037</v>
@@ -7016,25 +7016,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K36" t="n">
-        <v>488.1430095111792</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L36" t="n">
-        <v>843.4975491433806</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M36" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N36" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O36" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q36" t="n">
         <v>2587.498588679581</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>709.5735326357868</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="C37" t="n">
-        <v>540.6373497078799</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="D37" t="n">
-        <v>390.5207102955442</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="E37" t="n">
-        <v>242.6076167131511</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="F37" t="n">
-        <v>95.71766921524075</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="G37" t="n">
-        <v>95.71766921524075</v>
+        <v>269.7123590963794</v>
       </c>
       <c r="H37" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I37" t="n">
         <v>95.71766921524075</v>
@@ -7101,10 +7101,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L37" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M37" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N37" t="n">
         <v>1318.687152545534</v>
@@ -7116,31 +7116,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q37" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R37" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S37" t="n">
-        <v>1913.078649972672</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T37" t="n">
-        <v>1913.078649972672</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U37" t="n">
-        <v>1623.973345514698</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V37" t="n">
-        <v>1369.288857308811</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W37" t="n">
-        <v>1340.004127507574</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X37" t="n">
-        <v>1112.014576609557</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y37" t="n">
-        <v>891.2219974660266</v>
+        <v>437.4598847546351</v>
       </c>
     </row>
     <row r="38">
@@ -7159,13 +7159,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H38" t="n">
         <v>141.5554198924156</v>
@@ -7174,28 +7174,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>280.8839136038011</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K38" t="n">
-        <v>923.186567216862</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L38" t="n">
-        <v>1772.296432851855</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M38" t="n">
-        <v>2288.682911641539</v>
+        <v>2451.514037751686</v>
       </c>
       <c r="N38" t="n">
-        <v>3251.01232707018</v>
+        <v>2980.869998012462</v>
       </c>
       <c r="O38" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P38" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q38" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R38" t="n">
         <v>4785.883460762037</v>
@@ -7210,13 +7210,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V38" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y38" t="n">
         <v>2765.933610202796</v>
@@ -7253,25 +7253,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K39" t="n">
-        <v>488.1430095111792</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L39" t="n">
-        <v>843.4975491433806</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M39" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N39" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O39" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q39" t="n">
         <v>2587.498588679581</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>709.5735326357868</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C40" t="n">
-        <v>540.6373497078799</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D40" t="n">
-        <v>390.5207102955442</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E40" t="n">
-        <v>242.6076167131511</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F40" t="n">
         <v>95.71766921524075</v>
@@ -7338,10 +7338,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L40" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M40" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N40" t="n">
         <v>1318.687152545534</v>
@@ -7353,31 +7353,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q40" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R40" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S40" t="n">
-        <v>1821.238811302083</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T40" t="n">
-        <v>1821.238811302083</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U40" t="n">
-        <v>1532.13350684411</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V40" t="n">
-        <v>1277.449018638223</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W40" t="n">
-        <v>988.0318486012623</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X40" t="n">
-        <v>988.0318486012623</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y40" t="n">
-        <v>891.2219974660266</v>
+        <v>216.667305611105</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>276.3093906935956</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K41" t="n">
-        <v>597.7080858612034</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L41" t="n">
-        <v>1446.817951496196</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M41" t="n">
-        <v>2408.222828443785</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N41" t="n">
-        <v>3370.552243872426</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O41" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P41" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q41" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R41" t="n">
         <v>4785.883460762037</v>
@@ -7490,25 +7490,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K42" t="n">
-        <v>488.1430095111792</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L42" t="n">
-        <v>843.4975491433806</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M42" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N42" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O42" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q42" t="n">
         <v>2587.498588679581</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.71766921524075</v>
+        <v>216.667305611105</v>
       </c>
       <c r="C43" t="n">
-        <v>95.71766921524075</v>
+        <v>216.667305611105</v>
       </c>
       <c r="D43" t="n">
-        <v>95.71766921524075</v>
+        <v>216.667305611105</v>
       </c>
       <c r="E43" t="n">
-        <v>95.71766921524075</v>
+        <v>216.667305611105</v>
       </c>
       <c r="F43" t="n">
         <v>95.71766921524075</v>
@@ -7575,10 +7575,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L43" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M43" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N43" t="n">
         <v>1318.687152545534</v>
@@ -7590,31 +7590,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q43" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R43" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S43" t="n">
         <v>1720.61395783393</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.355226787849</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.249922329876</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.565434123989</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W43" t="n">
-        <v>726.1482640870279</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X43" t="n">
-        <v>498.1587131890105</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.3661340454805</v>
+        <v>216.667305611105</v>
       </c>
     </row>
     <row r="44">
@@ -7630,37 +7630,37 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E44" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F44" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G44" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H44" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I44" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>276.3093906935956</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K44" t="n">
-        <v>597.7080858612034</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L44" t="n">
         <v>1446.817951496196</v>
       </c>
       <c r="M44" t="n">
-        <v>2408.222828443785</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N44" t="n">
-        <v>3370.552243872426</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O44" t="n">
         <v>4114.52506777933</v>
@@ -7684,13 +7684,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V44" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W44" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X44" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y44" t="n">
         <v>2765.933610202796</v>
@@ -7727,25 +7727,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K45" t="n">
-        <v>488.1430095111792</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L45" t="n">
-        <v>843.4975491433806</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M45" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N45" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O45" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q45" t="n">
         <v>2587.498588679581</v>
@@ -7812,10 +7812,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L46" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M46" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N46" t="n">
         <v>1318.687152545534</v>
@@ -7827,22 +7827,22 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q46" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R46" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S46" t="n">
-        <v>1628.774119163342</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T46" t="n">
-        <v>1406.816559682885</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U46" t="n">
-        <v>1117.711255224912</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V46" t="n">
-        <v>863.0267670190248</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W46" t="n">
         <v>726.1482640870279</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028826</v>
+        <v>359.9065542451769</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8695,16 +8695,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>90.70213529832017</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>53.84110201061594</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>53.84110201061571</v>
       </c>
       <c r="N14" t="n">
-        <v>53.8411020106148</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>260.0527905534063</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>194.3363706804249</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>90.70213529832017</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>194.3363706804249</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>259.7987504703947</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>260.0527905534063</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>74.60209794880123</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>74.60209794880225</v>
       </c>
       <c r="R24" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>34.15539214908131</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,16 +10117,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>222.937717182689</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>259.7987504703942</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>316.5995337026458</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10360,10 +10360,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>4.62073021232888</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>90.70213529832102</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>4.62073021232888</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10834,19 +10834,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>53.84110201061594</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>90.70213529832063</v>
       </c>
       <c r="O41" t="n">
-        <v>260.0527905534063</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>260.0527905534063</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>125.6564628920985</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>137.2513506536504</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.16498575571964</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>198.1159005208221</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>151.013280433914</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956054</v>
+        <v>49.9275247210554</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.09184015003143</v>
+        <v>151.0132804339143</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
         <v>97.68290229956054</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>282.3997184362141</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>47.50668106672222</v>
       </c>
     </row>
     <row r="26">
@@ -24606,19 +24606,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>97.68290229956054</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>60.09184015003166</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>172.1936221513392</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>104.9872553834699</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>145.148367782564</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>151.0132804339142</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0700504016732</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388263</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>60.09184015003191</v>
       </c>
       <c r="T34" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>38.94646248127117</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.148367782564</v>
+        <v>70.57652709979733</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388263</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S37" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>257.5311158333658</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>60.09184015003166</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0700504016732</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S40" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>122.7429007282115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>25.68090799102561</v>
       </c>
       <c r="G43" t="n">
         <v>166.0700504016732</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388263</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>60.09184015003169</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>60.09184015003183</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>151.0132804339141</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>859387.7168682847</v>
+        <v>859387.7168682849</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859387.7168682847</v>
+        <v>859387.7168682849</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>859387.7168682849</v>
+        <v>859387.7168682847</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>859387.7168682847</v>
+        <v>859387.7168682849</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>859387.7168682847</v>
+        <v>859387.7168682849</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>859387.7168682849</v>
+        <v>859387.7168682847</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.238904999</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>555113.0228891707</v>
+        <v>555113.0228891706</v>
       </c>
       <c r="F2" t="n">
-        <v>555113.0228891703</v>
+        <v>555113.0228891704</v>
       </c>
       <c r="G2" t="n">
-        <v>555113.0228891706</v>
+        <v>555113.0228891704</v>
       </c>
       <c r="H2" t="n">
         <v>555113.0228891706</v>
@@ -26340,22 +26340,22 @@
         <v>555113.0228891704</v>
       </c>
       <c r="K2" t="n">
+        <v>555113.0228891703</v>
+      </c>
+      <c r="L2" t="n">
         <v>555113.0228891704</v>
       </c>
-      <c r="L2" t="n">
-        <v>555113.0228891706</v>
-      </c>
       <c r="M2" t="n">
-        <v>555113.0228891706</v>
+        <v>555113.0228891704</v>
       </c>
       <c r="N2" t="n">
         <v>555113.0228891706</v>
       </c>
       <c r="O2" t="n">
-        <v>555113.0228891702</v>
+        <v>555113.0228891704</v>
       </c>
       <c r="P2" t="n">
-        <v>555113.0228891707</v>
+        <v>555113.0228891704</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
-        <v>27510.00885503003</v>
+        <v>27510.00885503006</v>
       </c>
       <c r="F4" t="n">
-        <v>27510.00885503003</v>
+        <v>27510.00885503005</v>
       </c>
       <c r="G4" t="n">
-        <v>27510.00885503003</v>
+        <v>27510.00885503005</v>
       </c>
       <c r="H4" t="n">
-        <v>27510.00885503003</v>
+        <v>27510.00885503005</v>
       </c>
       <c r="I4" t="n">
-        <v>27510.00885503003</v>
+        <v>27510.00885503005</v>
       </c>
       <c r="J4" t="n">
-        <v>27510.00885503004</v>
+        <v>27510.00885503005</v>
       </c>
       <c r="K4" t="n">
-        <v>27510.00885503004</v>
+        <v>27510.00885503005</v>
       </c>
       <c r="L4" t="n">
-        <v>27510.00885503004</v>
+        <v>27510.00885503005</v>
       </c>
       <c r="M4" t="n">
-        <v>27510.00885503003</v>
+        <v>27510.00885503005</v>
       </c>
       <c r="N4" t="n">
-        <v>27510.00885502999</v>
+        <v>27510.00885503006</v>
       </c>
       <c r="O4" t="n">
-        <v>27510.00885503003</v>
+        <v>27510.00885503005</v>
       </c>
       <c r="P4" t="n">
-        <v>27510.00885503003</v>
+        <v>27510.00885503005</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="F5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="G5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="H5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="I5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="J5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="K5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="L5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="M5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="N5" t="n">
         <v>95967.7133920692</v>
       </c>
       <c r="O5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="P5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-299162.2243006867</v>
+        <v>-299162.2243006865</v>
       </c>
       <c r="C6" t="n">
-        <v>290805.6549138579</v>
+        <v>290805.654913858</v>
       </c>
       <c r="D6" t="n">
-        <v>290805.6549138579</v>
+        <v>290805.654913858</v>
       </c>
       <c r="E6" t="n">
-        <v>-277316.3752531797</v>
+        <v>-276685.8540240997</v>
       </c>
       <c r="F6" t="n">
-        <v>430934.7214986486</v>
+        <v>431565.2427277289</v>
       </c>
       <c r="G6" t="n">
-        <v>430934.7214986489</v>
+        <v>431565.2427277289</v>
       </c>
       <c r="H6" t="n">
-        <v>430934.7214986489</v>
+        <v>431565.242727729</v>
       </c>
       <c r="I6" t="n">
-        <v>430934.7214986489</v>
+        <v>431565.242727729</v>
       </c>
       <c r="J6" t="n">
-        <v>254511.5023060558</v>
+        <v>255142.023535136</v>
       </c>
       <c r="K6" t="n">
-        <v>430934.7214986488</v>
+        <v>431565.2427277288</v>
       </c>
       <c r="L6" t="n">
-        <v>430934.7214986489</v>
+        <v>431565.2427277289</v>
       </c>
       <c r="M6" t="n">
-        <v>300804.4815292394</v>
+        <v>301435.0027583195</v>
       </c>
       <c r="N6" t="n">
-        <v>430934.721498649</v>
+        <v>431565.242727729</v>
       </c>
       <c r="O6" t="n">
-        <v>430934.7214986485</v>
+        <v>431565.2427277289</v>
       </c>
       <c r="P6" t="n">
-        <v>430934.721498649</v>
+        <v>431565.2427277289</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>1065.242421490194</v>
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-2.708982972332458e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731075</v>
+        <v>687.4987572731077</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>384.8551676131859</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>120.0866871815547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
-        <v>96.44405126592677</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>28.44342906498821</v>
       </c>
       <c r="G5" t="n">
-        <v>205.8360633830791</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.7994718469074</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>16.68962877639353</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>214.4805104606442</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>190.7623767421584</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,22 +28064,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>170.3331898051322</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974515</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H11" t="n">
         <v>43.85694049883998</v>
@@ -31761,25 +31761,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J11" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K11" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L11" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M11" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N11" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O11" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P11" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q11" t="n">
         <v>462.4490353515545</v>
@@ -31788,13 +31788,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S11" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T11" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U11" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H12" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I12" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J12" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K12" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L12" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M12" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N12" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O12" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P12" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q12" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R12" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S12" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T12" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U12" t="n">
         <v>0.150741852097669</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H13" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I13" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J13" t="n">
         <v>135.8096772447416</v>
@@ -31925,16 +31925,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L13" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M13" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N13" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O13" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P13" t="n">
         <v>232.3276258279596</v>
@@ -31943,16 +31943,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R13" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S13" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T13" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H14" t="n">
         <v>43.85694049883998</v>
@@ -31998,25 +31998,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J14" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K14" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L14" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M14" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N14" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O14" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P14" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q14" t="n">
         <v>462.4490353515545</v>
@@ -32025,13 +32025,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S14" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T14" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U14" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H15" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I15" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J15" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K15" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L15" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M15" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N15" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O15" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P15" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q15" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R15" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S15" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T15" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U15" t="n">
         <v>0.150741852097669</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H16" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I16" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J16" t="n">
         <v>135.8096772447416</v>
@@ -32162,16 +32162,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L16" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M16" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N16" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O16" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P16" t="n">
         <v>232.3276258279596</v>
@@ -32180,16 +32180,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R16" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S16" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T16" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H17" t="n">
         <v>43.85694049883998</v>
@@ -32235,25 +32235,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J17" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K17" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L17" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M17" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N17" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O17" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P17" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q17" t="n">
         <v>462.4490353515545</v>
@@ -32262,13 +32262,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S17" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T17" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U17" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H18" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I18" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J18" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K18" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L18" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M18" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N18" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O18" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P18" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q18" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R18" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S18" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T18" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U18" t="n">
         <v>0.150741852097669</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H19" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I19" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J19" t="n">
         <v>135.8096772447416</v>
@@ -32399,16 +32399,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L19" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M19" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N19" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O19" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P19" t="n">
         <v>232.3276258279596</v>
@@ -32417,16 +32417,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R19" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S19" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T19" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H20" t="n">
         <v>43.85694049883998</v>
@@ -32472,25 +32472,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J20" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K20" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L20" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M20" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N20" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O20" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P20" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q20" t="n">
         <v>462.4490353515545</v>
@@ -32499,13 +32499,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S20" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T20" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U20" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H21" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I21" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J21" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K21" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L21" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M21" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N21" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O21" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P21" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q21" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R21" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S21" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T21" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U21" t="n">
         <v>0.150741852097669</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H22" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I22" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J22" t="n">
         <v>135.8096772447416</v>
@@ -32636,16 +32636,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L22" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M22" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N22" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O22" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P22" t="n">
         <v>232.3276258279596</v>
@@ -32654,16 +32654,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R22" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S22" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T22" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H23" t="n">
         <v>43.85694049883998</v>
@@ -32709,25 +32709,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J23" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K23" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L23" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M23" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N23" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O23" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P23" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q23" t="n">
         <v>462.4490353515545</v>
@@ -32736,13 +32736,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S23" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T23" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U23" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H24" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I24" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J24" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K24" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L24" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M24" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N24" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O24" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P24" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q24" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R24" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S24" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T24" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U24" t="n">
         <v>0.150741852097669</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H25" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I25" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J25" t="n">
         <v>135.8096772447416</v>
@@ -32873,16 +32873,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L25" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M25" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N25" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O25" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P25" t="n">
         <v>232.3276258279596</v>
@@ -32891,16 +32891,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R25" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S25" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T25" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H26" t="n">
         <v>43.85694049883998</v>
@@ -32946,25 +32946,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J26" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K26" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L26" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M26" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N26" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O26" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P26" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q26" t="n">
         <v>462.4490353515545</v>
@@ -32973,13 +32973,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S26" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T26" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U26" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H27" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I27" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J27" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K27" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L27" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M27" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N27" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O27" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P27" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q27" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R27" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S27" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T27" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U27" t="n">
         <v>0.150741852097669</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H28" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I28" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J28" t="n">
         <v>135.8096772447416</v>
@@ -33110,16 +33110,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L28" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M28" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N28" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O28" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P28" t="n">
         <v>232.3276258279596</v>
@@ -33128,16 +33128,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R28" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S28" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T28" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H29" t="n">
         <v>43.85694049883998</v>
@@ -33183,25 +33183,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J29" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K29" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L29" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M29" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N29" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O29" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P29" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q29" t="n">
         <v>462.4490353515545</v>
@@ -33210,13 +33210,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S29" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T29" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U29" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H30" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I30" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J30" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K30" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L30" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M30" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N30" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O30" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P30" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q30" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R30" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S30" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T30" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U30" t="n">
         <v>0.150741852097669</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H31" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I31" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J31" t="n">
         <v>135.8096772447416</v>
@@ -33347,16 +33347,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L31" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M31" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N31" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O31" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P31" t="n">
         <v>232.3276258279596</v>
@@ -33365,16 +33365,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R31" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S31" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T31" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H32" t="n">
         <v>43.85694049883998</v>
@@ -33420,25 +33420,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J32" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K32" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L32" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M32" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N32" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O32" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P32" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q32" t="n">
         <v>462.4490353515545</v>
@@ -33447,13 +33447,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S32" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T32" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U32" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H33" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I33" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J33" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K33" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L33" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M33" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N33" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O33" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P33" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q33" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R33" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S33" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T33" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U33" t="n">
         <v>0.150741852097669</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H34" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I34" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J34" t="n">
         <v>135.8096772447416</v>
@@ -33584,16 +33584,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L34" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M34" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N34" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O34" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P34" t="n">
         <v>232.3276258279596</v>
@@ -33602,16 +33602,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R34" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S34" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T34" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H35" t="n">
         <v>43.85694049883998</v>
@@ -33657,25 +33657,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J35" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K35" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L35" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M35" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N35" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O35" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P35" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q35" t="n">
         <v>462.4490353515545</v>
@@ -33684,13 +33684,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S35" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T35" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U35" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H36" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I36" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J36" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K36" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L36" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M36" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N36" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O36" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P36" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q36" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R36" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S36" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T36" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U36" t="n">
         <v>0.150741852097669</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H37" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I37" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J37" t="n">
         <v>135.8096772447416</v>
@@ -33821,16 +33821,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L37" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M37" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N37" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O37" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P37" t="n">
         <v>232.3276258279596</v>
@@ -33839,16 +33839,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R37" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S37" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T37" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H38" t="n">
         <v>43.85694049883998</v>
@@ -33894,25 +33894,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J38" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K38" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L38" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M38" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N38" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O38" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P38" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q38" t="n">
         <v>462.4490353515545</v>
@@ -33921,13 +33921,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S38" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T38" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U38" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H39" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I39" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J39" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K39" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L39" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M39" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N39" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O39" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P39" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q39" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R39" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S39" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T39" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U39" t="n">
         <v>0.150741852097669</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H40" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I40" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J40" t="n">
         <v>135.8096772447416</v>
@@ -34058,16 +34058,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L40" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M40" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N40" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O40" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P40" t="n">
         <v>232.3276258279596</v>
@@ -34076,16 +34076,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R40" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S40" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T40" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H41" t="n">
         <v>43.85694049883998</v>
@@ -34131,25 +34131,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J41" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K41" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L41" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M41" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N41" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O41" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P41" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q41" t="n">
         <v>462.4490353515545</v>
@@ -34158,13 +34158,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S41" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T41" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U41" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H42" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I42" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J42" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K42" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L42" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M42" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N42" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O42" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P42" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q42" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R42" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S42" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T42" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U42" t="n">
         <v>0.150741852097669</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H43" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I43" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J43" t="n">
         <v>135.8096772447416</v>
@@ -34295,16 +34295,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L43" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M43" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N43" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O43" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P43" t="n">
         <v>232.3276258279596</v>
@@ -34313,16 +34313,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R43" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S43" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T43" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H44" t="n">
         <v>43.85694049883998</v>
@@ -34368,25 +34368,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J44" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K44" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L44" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M44" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N44" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O44" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P44" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q44" t="n">
         <v>462.4490353515545</v>
@@ -34395,13 +34395,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S44" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T44" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U44" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H45" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I45" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J45" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K45" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L45" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M45" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N45" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O45" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P45" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q45" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R45" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S45" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T45" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U45" t="n">
         <v>0.150741852097669</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H46" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I46" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J46" t="n">
         <v>135.8096772447416</v>
@@ -34532,16 +34532,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L46" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M46" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N46" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O46" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P46" t="n">
         <v>232.3276258279596</v>
@@ -34550,16 +34550,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R46" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S46" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T46" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355135</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>351.5124954532403</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K11" t="n">
-        <v>648.790559205112</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L11" t="n">
-        <v>440.025518414189</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M11" t="n">
-        <v>521.6025038279637</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N11" t="n">
-        <v>625.4051254607205</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O11" t="n">
-        <v>872.2350916254042</v>
+        <v>545.2760123732746</v>
       </c>
       <c r="P11" t="n">
         <v>706.3775386004011</v>
@@ -35433,7 +35433,7 @@
         <v>452.4583361370097</v>
       </c>
       <c r="R11" t="n">
-        <v>119.1340348585827</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>164.2398203511937</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K12" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M12" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O12" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P12" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K13" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L13" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M13" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N13" t="n">
         <v>338.0866917389736</v>
@@ -35588,7 +35588,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>351.5124954532403</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K14" t="n">
-        <v>648.790559205112</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L14" t="n">
-        <v>857.6867329646394</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M14" t="n">
-        <v>521.6025038279637</v>
+        <v>575.4436058385792</v>
       </c>
       <c r="N14" t="n">
-        <v>588.5440921730151</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O14" t="n">
-        <v>491.4349103626588</v>
+        <v>491.4349103626587</v>
       </c>
       <c r="P14" t="n">
         <v>706.3775386004011</v>
@@ -35670,7 +35670,7 @@
         <v>452.4583361370097</v>
       </c>
       <c r="R14" t="n">
-        <v>119.1340348585827</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>164.2398203511937</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K15" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M15" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O15" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P15" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K16" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L16" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M16" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N16" t="n">
         <v>338.0866917389736</v>
@@ -35825,7 +35825,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>182.4158802811665</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K17" t="n">
-        <v>324.6451466339473</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L17" t="n">
-        <v>857.6867329646394</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M17" t="n">
-        <v>971.1160373207962</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N17" t="n">
-        <v>972.0499145743845</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O17" t="n">
-        <v>751.4877009160651</v>
+        <v>491.4349103626587</v>
       </c>
       <c r="P17" t="n">
-        <v>384.5788304289185</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.143345477105</v>
+        <v>434.4797161575299</v>
       </c>
       <c r="R17" t="n">
-        <v>53.41761498560021</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>164.2398203511937</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K18" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M18" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O18" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P18" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K19" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L19" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M19" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N19" t="n">
         <v>338.0866917389736</v>
@@ -36062,7 +36062,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>351.5124954532403</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K20" t="n">
-        <v>648.790559205112</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L20" t="n">
-        <v>440.025518414189</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M20" t="n">
-        <v>521.6025038279637</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N20" t="n">
-        <v>625.4051254607205</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O20" t="n">
-        <v>872.2350916254042</v>
+        <v>491.4349103626587</v>
       </c>
       <c r="P20" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q20" t="n">
-        <v>452.4583361370097</v>
+        <v>434.4797161575299</v>
       </c>
       <c r="R20" t="n">
-        <v>119.1340348585827</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>164.2398203511937</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K21" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M21" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O21" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P21" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K22" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L22" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M22" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N22" t="n">
         <v>338.0866917389736</v>
@@ -36299,7 +36299,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>182.4158802811665</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K23" t="n">
-        <v>324.6451466339473</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L23" t="n">
-        <v>857.6867329646394</v>
+        <v>699.8242688845836</v>
       </c>
       <c r="M23" t="n">
-        <v>971.1160373207962</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N23" t="n">
-        <v>972.0499145743845</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O23" t="n">
-        <v>751.4877009160651</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P23" t="n">
-        <v>384.5788304289185</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q23" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R23" t="n">
-        <v>53.41761498560021</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>164.2398203511937</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K24" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M24" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O24" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P24" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.4976168106824</v>
+        <v>227.0997147594846</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K25" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L25" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M25" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N25" t="n">
         <v>338.0866917389736</v>
@@ -36536,7 +36536,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>351.5124954532403</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K26" t="n">
-        <v>648.790559205112</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L26" t="n">
-        <v>440.025518414189</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M26" t="n">
-        <v>521.6025038279637</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N26" t="n">
-        <v>972.0499145743845</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O26" t="n">
-        <v>525.5903025117401</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P26" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q26" t="n">
-        <v>452.4583361370097</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R26" t="n">
-        <v>119.1340348585827</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>164.2398203511937</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K27" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M27" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O27" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P27" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K28" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L28" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M28" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N28" t="n">
         <v>338.0866917389736</v>
@@ -36773,7 +36773,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>182.4158802811665</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K29" t="n">
-        <v>648.790559205112</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L29" t="n">
-        <v>857.6867329646394</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M29" t="n">
-        <v>744.5402210106527</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N29" t="n">
-        <v>534.7029901624003</v>
+        <v>794.5017406327945</v>
       </c>
       <c r="O29" t="n">
-        <v>491.4349103626588</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P29" t="n">
         <v>706.3775386004011</v>
@@ -36855,7 +36855,7 @@
         <v>452.4583361370097</v>
       </c>
       <c r="R29" t="n">
-        <v>119.1340348585827</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>164.2398203511937</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K30" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M30" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O30" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P30" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K31" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L31" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M31" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N31" t="n">
         <v>338.0866917389736</v>
@@ -37010,7 +37010,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>182.4158802811665</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K32" t="n">
-        <v>641.2446803365931</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L32" t="n">
-        <v>857.6867329646394</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M32" t="n">
-        <v>971.1160373207962</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N32" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O32" t="n">
-        <v>872.2350916254042</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P32" t="n">
-        <v>384.5788304289185</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q32" t="n">
         <v>240.143345477105</v>
       </c>
       <c r="R32" t="n">
-        <v>53.41761498560021</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>164.2398203511937</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K33" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M33" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O33" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P33" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K34" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L34" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M34" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N34" t="n">
         <v>338.0866917389736</v>
@@ -37247,7 +37247,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>187.0366104934954</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K35" t="n">
-        <v>648.790559205112</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L35" t="n">
-        <v>857.6867329646394</v>
+        <v>530.7276537125099</v>
       </c>
       <c r="M35" t="n">
-        <v>521.6025038279637</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N35" t="n">
-        <v>972.0499145743845</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O35" t="n">
-        <v>872.2350916254042</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P35" t="n">
-        <v>384.5788304289185</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q35" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R35" t="n">
-        <v>53.41761498560021</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>164.2398203511937</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K36" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M36" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O36" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P36" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K37" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L37" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M37" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N37" t="n">
         <v>338.0866917389736</v>
@@ -37484,7 +37484,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>187.0366104934954</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K38" t="n">
-        <v>648.790559205112</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L38" t="n">
-        <v>857.6867329646394</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M38" t="n">
-        <v>521.6025038279637</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N38" t="n">
-        <v>972.0499145743845</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O38" t="n">
-        <v>872.2350916254042</v>
+        <v>545.2760123732746</v>
       </c>
       <c r="P38" t="n">
-        <v>384.5788304289185</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q38" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R38" t="n">
-        <v>53.41761498560021</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>164.2398203511937</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K39" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M39" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O39" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P39" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K40" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L40" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M40" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N40" t="n">
         <v>338.0866917389736</v>
@@ -37721,7 +37721,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>182.4158802811665</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K41" t="n">
-        <v>324.6451466339473</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L41" t="n">
-        <v>857.6867329646394</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M41" t="n">
-        <v>971.1160373207962</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N41" t="n">
-        <v>972.0499145743845</v>
+        <v>625.4051254607209</v>
       </c>
       <c r="O41" t="n">
-        <v>751.4877009160651</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P41" t="n">
-        <v>384.5788304289185</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R41" t="n">
-        <v>53.41761498560021</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>164.2398203511937</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K42" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M42" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O42" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P42" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K43" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L43" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M43" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N43" t="n">
         <v>338.0866917389736</v>
@@ -37958,7 +37958,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>182.4158802811665</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K44" t="n">
-        <v>324.6451466339473</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L44" t="n">
-        <v>857.6867329646394</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M44" t="n">
-        <v>971.1160373207962</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N44" t="n">
-        <v>972.0499145743845</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O44" t="n">
-        <v>751.4877009160651</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P44" t="n">
-        <v>384.5788304289185</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q44" t="n">
         <v>240.143345477105</v>
       </c>
       <c r="R44" t="n">
-        <v>53.41761498560021</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>164.2398203511937</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K45" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M45" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O45" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P45" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K46" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L46" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M46" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N46" t="n">
         <v>338.0866917389736</v>
@@ -38195,7 +38195,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
